--- a/SPP_R.xlsx
+++ b/SPP_R.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,128 +436,1016 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Instance</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Clauses</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Runtime</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Optimal_Height</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Instance</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HT01(c1p1)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1136</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>20626</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2971774499746971</v>
-      </c>
       <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>6.472219272982329</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HT02(c1p2)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1241</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>23300</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8031615689978935</v>
-      </c>
       <c r="D3" t="n">
+        <v>0.8245939879561774</v>
+      </c>
+      <c r="E3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HT03(c1p3)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1136</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>20612</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.333058969990816</v>
-      </c>
       <c r="D4" t="n">
+        <v>0.3344845889951102</v>
+      </c>
+      <c r="E4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HT04(c2p1)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2600</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>69073</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.7947964890045114</v>
-      </c>
       <c r="D5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>9.395692785037681</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HT05(c2p2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69014</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.170468847034499</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HT06(c2p3)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C7" t="n">
+        <v>69013</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.118841845018324</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HT07(c3p1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C8" t="n">
+        <v>140990</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.271988041000441</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HT08(c3p2)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C9" t="n">
+        <v>151256</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.789925915014464</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HT09(c3p3)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C10" t="n">
+        <v>140982</v>
+      </c>
+      <c r="D10" t="n">
+        <v>714.7799234080012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CGCUT01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>976</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15576</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5225501889945008</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CGCUT02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4485</v>
+      </c>
+      <c r="C12" t="n">
+        <v>157564</v>
+      </c>
+      <c r="D12" t="n">
+        <v>655.2443120380049</v>
+      </c>
+      <c r="E12" t="n">
+        <v>112</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGCUT03</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>86180</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9675876</v>
+      </c>
+      <c r="D13" t="n">
+        <v>247.9658476830227</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCUT01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C14" t="n">
+        <v>184992</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.40473579696845</v>
+      </c>
+      <c r="E14" t="n">
+        <v>696</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GCUT02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>28500</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1091234</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76.3222539149574</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GCUT03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3486722</v>
+      </c>
+      <c r="D16" t="n">
+        <v>210.2644267810392</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GCUT04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>185900</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17942810</v>
+      </c>
+      <c r="D17" t="n">
+        <v>897.9475576669793</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3369</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGCUT01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>480</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5872</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.30354560504202</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGCUT02</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5940553579712287</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGCUT03</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33864</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.687175226979889</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGCUT04</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>273</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2572</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0157821990433149</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGCUT05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>924</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15452</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3018850390217267</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGCUT06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>960</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15923</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.435002729005646</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGCUT07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>352</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3725</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.04810354899382219</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGCUT08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17602</v>
+      </c>
+      <c r="D25" t="n">
+        <v>358.5391635760316</v>
+      </c>
+      <c r="E25" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGCUT09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1872</v>
+      </c>
+      <c r="C26" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.373325088992715</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGCUT10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29742</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.56607337802416</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGCUT11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35914</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.042538786015939</v>
+      </c>
+      <c r="E28" t="n">
+        <v>51</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGCUT12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C29" t="n">
+        <v>103224</v>
+      </c>
+      <c r="D29" t="n">
+        <v>47.94815223902697</v>
+      </c>
+      <c r="E29" t="n">
+        <v>77</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BENG01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C30" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8454915179754607</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BENG02</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6440</v>
+      </c>
+      <c r="C31" t="n">
+        <v>263136</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.486133962986059</v>
+      </c>
+      <c r="E31" t="n">
+        <v>58</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BENG03</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13680</v>
+      </c>
+      <c r="C32" t="n">
+        <v>786654</v>
+      </c>
+      <c r="D32" t="n">
+        <v>28.93760611698963</v>
+      </c>
+      <c r="E32" t="n">
+        <v>86</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BENG04</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23360</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1706124</v>
+      </c>
+      <c r="D33" t="n">
+        <v>84.80487015401013</v>
+      </c>
+      <c r="E33" t="n">
+        <v>110</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BENG05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>35900</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3205936</v>
+      </c>
+      <c r="D34" t="n">
+        <v>259.6339410220389</v>
+      </c>
+      <c r="E34" t="n">
+        <v>138</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BENG06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>244176</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.24562238395447</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BENG07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>21280</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1375404</v>
+      </c>
+      <c r="D36" t="n">
+        <v>105.6386484930408</v>
+      </c>
+      <c r="E36" t="n">
+        <v>69</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BENG08</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4161042</v>
+      </c>
+      <c r="D37" t="n">
+        <v>183.2228039319743</v>
+      </c>
+      <c r="E37" t="n">
+        <v>108</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BENG09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>78240</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8730974</v>
+      </c>
+      <c r="D38" t="n">
+        <v>516.0008046349976</v>
+      </c>
+      <c r="E38" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BENG10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>121400</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16682086</v>
+      </c>
+      <c r="D39" t="n">
+        <v>884.4760908909957</v>
+      </c>
+      <c r="E39" t="n">
+        <v>182</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HT10(c4p1)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10682</v>
+      </c>
+      <c r="C40" t="n">
+        <v>581469</v>
+      </c>
+      <c r="D40" t="n">
+        <v>18.51161529903766</v>
+      </c>
+      <c r="E40" t="n">
+        <v>64</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HT11(c4p2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10633</v>
+      </c>
+      <c r="C41" t="n">
+        <v>576650</v>
+      </c>
+      <c r="D41" t="n">
+        <v>190.5333287629765</v>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HT12(c4p3)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10633</v>
+      </c>
+      <c r="C42" t="n">
+        <v>576616</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.11696468305308</v>
+      </c>
+      <c r="E42" t="n">
+        <v>61</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>

--- a/SPP_R.xlsx
+++ b/SPP_R.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>CGCUT01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1136</v>
+        <v>1024</v>
       </c>
       <c r="C2" t="n">
-        <v>20626</v>
+        <v>17064</v>
       </c>
       <c r="D2" t="n">
-        <v>6.472219272982329</v>
+        <v>0.3362067639827728</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,68 +492,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>CGCUT02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1241</v>
+        <v>4094</v>
       </c>
       <c r="C3" t="n">
-        <v>23300</v>
+        <v>139969</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8245939879561774</v>
+        <v>1170.970237447007</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>CGCUT03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1136</v>
+        <v>53940</v>
       </c>
       <c r="C4" t="n">
-        <v>20612</v>
+        <v>5710604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3344845889951102</v>
+        <v>99.9422297559795</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>GCUT01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2600</v>
+        <v>1024</v>
       </c>
       <c r="C5" t="n">
-        <v>69073</v>
+        <v>17064</v>
       </c>
       <c r="D5" t="n">
-        <v>9.395692785037681</v>
+        <v>0.3228733149589971</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -564,68 +564,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HT05(c2p2)</t>
+          <t>GCUT02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2600</v>
+        <v>4094</v>
       </c>
       <c r="C6" t="n">
-        <v>69014</v>
+        <v>139969</v>
       </c>
       <c r="D6" t="n">
-        <v>1.170468847034499</v>
+        <v>1152.902859464986</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HT06(c2p3)</t>
+          <t>GCUT03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2600</v>
+        <v>53940</v>
       </c>
       <c r="C7" t="n">
-        <v>69013</v>
+        <v>5710604</v>
       </c>
       <c r="D7" t="n">
-        <v>2.118841845018324</v>
+        <v>99.93469567701686</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>720</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HT07(c3p1)</t>
+          <t>GCUT04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4060</v>
+        <v>175950</v>
       </c>
       <c r="C8" t="n">
-        <v>140990</v>
+        <v>16957760</v>
       </c>
       <c r="D8" t="n">
-        <v>3.271988041000441</v>
+        <v>1798.860873220954</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>3170</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -636,44 +636,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HT08(c3p2)</t>
+          <t>NGCUT01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4263</v>
+        <v>490</v>
       </c>
       <c r="C9" t="n">
-        <v>151256</v>
+        <v>6062</v>
       </c>
       <c r="D9" t="n">
-        <v>2.789925915014464</v>
+        <v>18.04244002798805</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HT09(c3p3)</t>
+          <t>NGCUT02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4060</v>
+        <v>1207</v>
       </c>
       <c r="C10" t="n">
-        <v>140982</v>
+        <v>22156</v>
       </c>
       <c r="D10" t="n">
-        <v>714.7799234080012</v>
+        <v>0.5639076569932513</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -684,20 +684,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGCUT01</t>
+          <t>NGCUT03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>976</v>
+        <v>1659</v>
       </c>
       <c r="C11" t="n">
-        <v>15576</v>
+        <v>33864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5225501889945008</v>
+        <v>0.8171524879871868</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -708,68 +708,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CGCUT02</t>
+          <t>NGCUT04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4485</v>
+        <v>287</v>
       </c>
       <c r="C12" t="n">
-        <v>157564</v>
+        <v>2754</v>
       </c>
       <c r="D12" t="n">
-        <v>655.2443120380049</v>
+        <v>0.0336478779790923</v>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGCUT03</t>
+          <t>NGCUT05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86180</v>
+        <v>1022</v>
       </c>
       <c r="C13" t="n">
-        <v>9675876</v>
+        <v>17992</v>
       </c>
       <c r="D13" t="n">
-        <v>247.9658476830227</v>
+        <v>0.2501986610004678</v>
       </c>
       <c r="E13" t="n">
-        <v>1342</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCUT01</t>
+          <t>NGCUT06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9650</v>
+        <v>1020</v>
       </c>
       <c r="C14" t="n">
-        <v>184992</v>
+        <v>17653</v>
       </c>
       <c r="D14" t="n">
-        <v>14.40473579696845</v>
+        <v>1.630120495974552</v>
       </c>
       <c r="E14" t="n">
-        <v>696</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -780,92 +780,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCUT02</t>
+          <t>NGCUT07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28500</v>
+        <v>440</v>
       </c>
       <c r="C15" t="n">
-        <v>1091234</v>
+        <v>5096</v>
       </c>
       <c r="D15" t="n">
-        <v>76.3222539149574</v>
+        <v>0.06812394497683272</v>
       </c>
       <c r="E15" t="n">
-        <v>1175</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCUT03</t>
+          <t>NGCUT08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60600</v>
+        <v>1001</v>
       </c>
       <c r="C16" t="n">
-        <v>3486722</v>
+        <v>17602</v>
       </c>
       <c r="D16" t="n">
-        <v>210.2644267810392</v>
+        <v>535.2619113239925</v>
       </c>
       <c r="E16" t="n">
-        <v>1793</v>
+        <v>33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCUT04</t>
+          <t>NGCUT09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185900</v>
+        <v>1872</v>
       </c>
       <c r="C17" t="n">
-        <v>17942810</v>
+        <v>44628</v>
       </c>
       <c r="D17" t="n">
-        <v>897.9475576669793</v>
+        <v>1.234736742975656</v>
       </c>
       <c r="E17" t="n">
-        <v>3369</v>
+        <v>49</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGCUT01</t>
+          <t>NGCUT10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>480</v>
+        <v>1482</v>
       </c>
       <c r="C18" t="n">
-        <v>5872</v>
+        <v>30067</v>
       </c>
       <c r="D18" t="n">
-        <v>21.30354560504202</v>
+        <v>39.58845736295916</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -876,44 +876,44 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGCUT02</t>
+          <t>NGCUT11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1207</v>
+        <v>1635</v>
       </c>
       <c r="C19" t="n">
-        <v>22156</v>
+        <v>35914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5940553579712287</v>
+        <v>7.327807634021156</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NGCUT03</t>
+          <t>NGCUT12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1659</v>
+        <v>3300</v>
       </c>
       <c r="C20" t="n">
-        <v>33864</v>
+        <v>103224</v>
       </c>
       <c r="D20" t="n">
-        <v>0.687175226979889</v>
+        <v>628.6174526740215</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -924,20 +924,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGCUT04</t>
+          <t>BENG01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>273</v>
+        <v>1880</v>
       </c>
       <c r="C21" t="n">
-        <v>2572</v>
+        <v>44130</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0157821990433149</v>
+        <v>0.930337295983918</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -948,20 +948,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NGCUT05</t>
+          <t>BENG02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924</v>
+        <v>6440</v>
       </c>
       <c r="C22" t="n">
-        <v>15452</v>
+        <v>263136</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3018850390217267</v>
+        <v>439.707923148002</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -972,92 +972,92 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NGCUT06</t>
+          <t>BENG03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>960</v>
+        <v>13680</v>
       </c>
       <c r="C23" t="n">
-        <v>15923</v>
+        <v>786654</v>
       </c>
       <c r="D23" t="n">
-        <v>0.435002729005646</v>
+        <v>29.18107290402986</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NGCUT07</t>
+          <t>BENG04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>352</v>
+        <v>23360</v>
       </c>
       <c r="C24" t="n">
-        <v>3725</v>
+        <v>1706124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04810354899382219</v>
+        <v>90.01459397998406</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NGCUT08</t>
+          <t>BENG05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1001</v>
+        <v>35900</v>
       </c>
       <c r="C25" t="n">
-        <v>17602</v>
+        <v>3205936</v>
       </c>
       <c r="D25" t="n">
-        <v>358.5391635760316</v>
+        <v>348.8124754469609</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NGCUT09</t>
+          <t>BENG06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1872</v>
+        <v>6200</v>
       </c>
       <c r="C26" t="n">
-        <v>44628</v>
+        <v>244176</v>
       </c>
       <c r="D26" t="n">
-        <v>5.373325088992715</v>
+        <v>8.963462118001189</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1068,44 +1068,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NGCUT10</t>
+          <t>BENG07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1469</v>
+        <v>21280</v>
       </c>
       <c r="C27" t="n">
-        <v>29742</v>
+        <v>1375404</v>
       </c>
       <c r="D27" t="n">
-        <v>24.56607337802416</v>
+        <v>402.4732073370251</v>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGCUT11</t>
+          <t>BENG08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1635</v>
+        <v>45960</v>
       </c>
       <c r="C28" t="n">
-        <v>35914</v>
+        <v>4161042</v>
       </c>
       <c r="D28" t="n">
-        <v>2.042538786015939</v>
+        <v>187.5438550959807</v>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1116,334 +1116,46 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGCUT12</t>
+          <t>BENG09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3300</v>
+        <v>77920</v>
       </c>
       <c r="C29" t="n">
-        <v>103224</v>
+        <v>8628894</v>
       </c>
       <c r="D29" t="n">
-        <v>47.94815223902697</v>
+        <v>1061.290703820996</v>
       </c>
       <c r="E29" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENG01</t>
+          <t>BENG10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1880</v>
+        <v>120200</v>
       </c>
       <c r="C30" t="n">
-        <v>44130</v>
+        <v>16203286</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8454915179754607</v>
+        <v>1334.901060451986</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BENG02</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6440</v>
-      </c>
-      <c r="C31" t="n">
-        <v>263136</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7.486133962986059</v>
-      </c>
-      <c r="E31" t="n">
-        <v>58</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BENG03</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>13680</v>
-      </c>
-      <c r="C32" t="n">
-        <v>786654</v>
-      </c>
-      <c r="D32" t="n">
-        <v>28.93760611698963</v>
-      </c>
-      <c r="E32" t="n">
-        <v>86</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BENG04</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>23360</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1706124</v>
-      </c>
-      <c r="D33" t="n">
-        <v>84.80487015401013</v>
-      </c>
-      <c r="E33" t="n">
-        <v>110</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BENG05</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>35900</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3205936</v>
-      </c>
-      <c r="D34" t="n">
-        <v>259.6339410220389</v>
-      </c>
-      <c r="E34" t="n">
-        <v>138</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BENG06</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C35" t="n">
-        <v>244176</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.24562238395447</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BENG07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>21280</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1375404</v>
-      </c>
-      <c r="D36" t="n">
-        <v>105.6386484930408</v>
-      </c>
-      <c r="E36" t="n">
-        <v>69</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BENG08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4161042</v>
-      </c>
-      <c r="D37" t="n">
-        <v>183.2228039319743</v>
-      </c>
-      <c r="E37" t="n">
-        <v>108</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BENG09</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>78240</v>
-      </c>
-      <c r="C38" t="n">
-        <v>8730974</v>
-      </c>
-      <c r="D38" t="n">
-        <v>516.0008046349976</v>
-      </c>
-      <c r="E38" t="n">
-        <v>135</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BENG10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>121400</v>
-      </c>
-      <c r="C39" t="n">
-        <v>16682086</v>
-      </c>
-      <c r="D39" t="n">
-        <v>884.4760908909957</v>
-      </c>
-      <c r="E39" t="n">
-        <v>182</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HT10(c4p1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>10682</v>
-      </c>
-      <c r="C40" t="n">
-        <v>581469</v>
-      </c>
-      <c r="D40" t="n">
-        <v>18.51161529903766</v>
-      </c>
-      <c r="E40" t="n">
-        <v>64</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HT11(c4p2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>10633</v>
-      </c>
-      <c r="C41" t="n">
-        <v>576650</v>
-      </c>
-      <c r="D41" t="n">
-        <v>190.5333287629765</v>
-      </c>
-      <c r="E41" t="n">
-        <v>61</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HT12(c4p3)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>10633</v>
-      </c>
-      <c r="C42" t="n">
-        <v>576616</v>
-      </c>
-      <c r="D42" t="n">
-        <v>27.11696468305308</v>
-      </c>
-      <c r="E42" t="n">
-        <v>61</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>
